--- a/test_case_data/bmc/bmc_vehicle_steward_29_39_20210513.xlsx
+++ b/test_case_data/bmc/bmc_vehicle_steward_29_39_20210513.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="88">
   <si>
     <t>caseNum</t>
   </si>
@@ -99,27 +99,15 @@
     <t>post</t>
   </si>
   <si>
-    <t>vehicle_steward028</t>
-  </si>
-  <si>
-    <t>获取用户授权</t>
-  </si>
-  <si>
     <t>查看自动记账设置</t>
   </si>
   <si>
-    <t>/vehicle/steward/authorization/authorizationOfUse</t>
-  </si>
-  <si>
     <t>返回自动记账的设置</t>
   </si>
   <si>
     <t>http://yapi.hikcreate.com/project/31/interface/api/75421</t>
   </si>
   <si>
-    <t>vehicle_steward029</t>
-  </si>
-  <si>
     <t>更改自动记账</t>
   </si>
   <si>
@@ -138,9 +126,6 @@
     <t>http://yapi.hikcreate.com/project/31/interface/api/75191</t>
   </si>
   <si>
-    <t>vehicle_steward030</t>
-  </si>
-  <si>
     <t>关闭自动记账的加油这个项目</t>
   </si>
   <si>
@@ -150,27 +135,18 @@
     <t>加油关闭</t>
   </si>
   <si>
-    <t>vehicle_steward031</t>
-  </si>
-  <si>
     <t>车辆列表</t>
   </si>
   <si>
     <t>自动记账设置中显示的我的车辆</t>
   </si>
   <si>
-    <t>/pvtapi/vehicle/manage/list</t>
-  </si>
-  <si>
     <t>登录账号：18800000020</t>
   </si>
   <si>
     <t>显示我的所有车辆</t>
   </si>
   <si>
-    <t>vehicle_steward032</t>
-  </si>
-  <si>
     <t>开启自动记账的交通罚款这个项目</t>
   </si>
   <si>
@@ -180,9 +156,6 @@
     <t>交通罚款开启</t>
   </si>
   <si>
-    <t>vehicle_steward033</t>
-  </si>
-  <si>
     <t>关闭自动记账的交通罚款这个项目</t>
   </si>
   <si>
@@ -190,9 +163,6 @@
   </si>
   <si>
     <t>交通罚款关闭</t>
-  </si>
-  <si>
-    <t>vehicle_steward034</t>
   </si>
   <si>
     <t>自动记账</t>
@@ -220,9 +190,6 @@
     <t>http://yapi.hikcreate.com/project/31/interface/api/74441</t>
   </si>
   <si>
-    <t>vehicle_steward035</t>
-  </si>
-  <si>
     <t>添加一笔自动记账的加油</t>
   </si>
   <si>
@@ -239,55 +206,115 @@
     <t>自动记账的加油添加成功</t>
   </si>
   <si>
-    <t>vehicle_steward036</t>
-  </si>
-  <si>
     <t>更新获取新费用</t>
   </si>
   <si>
     <t>检查到有自动记账的数据，但是不添加到记账明细</t>
   </si>
   <si>
+    <t>自动记账的数据加到记账明细中</t>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/31/interface/api/75456</t>
+  </si>
+  <si>
+    <t>不同意开启自动记账的授权</t>
+  </si>
+  <si>
+    <t>{"plateType": "02","plateNum": "贵ARR008"}</t>
+  </si>
+  <si>
+    <t>自动记账没有被打开</t>
+  </si>
+  <si>
+    <t>同意开启自动记账的授权</t>
+  </si>
+  <si>
+    <t>登录账号：18800000020（有车）</t>
+  </si>
+  <si>
+    <t>自动记账被打开</t>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/31/interface/api/74436</t>
+  </si>
+  <si>
+    <t>/vehicle/steward/authorization/update</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pvtapi/vehicle/manage/list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/vehicle/steward/accounts/autoSyncAccounts</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>/vehicle/steward/index/updateLastTime</t>
-  </si>
-  <si>
-    <t>自动记账的数据加到记账明细中</t>
-  </si>
-  <si>
-    <t>http://yapi.hikcreate.com/project/31/interface/api/75456</t>
-  </si>
-  <si>
-    <t>vehicle_steward037</t>
-  </si>
-  <si>
-    <t>不同意开启自动记账的授权</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/vehicle/steward/authorization/disagree</t>
-  </si>
-  <si>
-    <t>{"plateType": "02","plateNum": "贵ARR008"}</t>
-  </si>
-  <si>
-    <t>自动记账没有被打开</t>
-  </si>
-  <si>
-    <t>vehicle_steward038</t>
-  </si>
-  <si>
-    <t>同意开启自动记账的授权</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/vehicle/steward/authorization/agree</t>
-  </si>
-  <si>
-    <t>登录账号：18800000020（有车）</t>
-  </si>
-  <si>
-    <t>自动记账被打开</t>
-  </si>
-  <si>
-    <t>http://yapi.hikcreate.com/project/31/interface/api/74436</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取用户授权</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/vehicle/steward/authorization/authorizationOfUse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/vehicle/steward/authorization/update</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>authorizationOfUsevehiclesteward001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>getvehiclesteward001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>postvehiclesteward001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>postvehiclesteward002</t>
+  </si>
+  <si>
+    <t>autoSyncAccountsvehiclesteward002</t>
+  </si>
+  <si>
+    <t>getvehiclesteward002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>listvehiclesteward001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoSyncAccountsvehiclesteward001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateLastTimevehiclesteward001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>disagreevehiclesteward001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>agreevehiclesteward001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -684,16 +711,16 @@
   <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.125" customWidth="1"/>
+    <col min="1" max="1" width="35.875" customWidth="1"/>
     <col min="2" max="2" width="17.375" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="5" max="5" width="28.125" customWidth="1"/>
-    <col min="6" max="6" width="39.875" customWidth="1"/>
+    <col min="5" max="5" width="38.25" customWidth="1"/>
+    <col min="6" max="6" width="45.25" customWidth="1"/>
     <col min="7" max="7" width="17.375" customWidth="1"/>
     <col min="8" max="8" width="30.875" customWidth="1"/>
     <col min="11" max="11" width="48.875" customWidth="1"/>
@@ -706,7 +733,7 @@
     <col min="18" max="18" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" s="7" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -764,22 +791,22 @@
     </row>
     <row r="2" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="1" t="s">
@@ -791,14 +818,14 @@
       <c r="J2" s="1"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>22</v>
@@ -808,24 +835,24 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="1" t="s">
@@ -836,17 +863,17 @@
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>21</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>22</v>
@@ -856,24 +883,24 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="1" t="s">
@@ -884,17 +911,17 @@
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>22</v>
@@ -906,26 +933,26 @@
     </row>
     <row r="5" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>20</v>
@@ -933,7 +960,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>21</v>
@@ -950,43 +977,43 @@
     </row>
     <row r="6" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>22</v>
@@ -998,43 +1025,43 @@
     </row>
     <row r="7" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>21</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>22</v>
@@ -1044,45 +1071,45 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="4" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>22</v>
@@ -1092,45 +1119,45 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="114" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>21</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="4" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>22</v>
@@ -1142,26 +1169,26 @@
     </row>
     <row r="10" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>71</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>25</v>
@@ -1169,14 +1196,14 @@
       <c r="J10" s="1"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>21</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="4" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>22</v>
@@ -1188,43 +1215,43 @@
     </row>
     <row r="11" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="2" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>21</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="4" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>22</v>
@@ -1236,43 +1263,43 @@
     </row>
     <row r="12" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="1" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="2" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>21</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="4" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>22</v>
@@ -1288,5 +1315,6 @@
     <hyperlink ref="O2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/test_case_data/bmc/bmc_vehicle_steward_29_39_20210513.xlsx
+++ b/test_case_data/bmc/bmc_vehicle_steward_29_39_20210513.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="89">
   <si>
     <t>caseNum</t>
   </si>
@@ -117,9 +117,6 @@
     <t>/vehicle/steward/authorization/update</t>
   </si>
   <si>
-    <t>{"gasLog": true,"trafficFine": false,"plateType": "","plateNum": "","id": 84,"userId": 598141,"cityCode": 520100}</t>
-  </si>
-  <si>
     <t>加油开启</t>
   </si>
   <si>
@@ -129,9 +126,6 @@
     <t>关闭自动记账的加油这个项目</t>
   </si>
   <si>
-    <t>{"gasLog": false,"trafficFine": false,"plateType": "","plateNum": "","id": 84,"userId": 598141,"cityCode": 520100}</t>
-  </si>
-  <si>
     <t>加油关闭</t>
   </si>
   <si>
@@ -147,28 +141,16 @@
     <t>显示我的所有车辆</t>
   </si>
   <si>
-    <t>开启自动记账的交通罚款这个项目</t>
-  </si>
-  <si>
-    <t>{"gasLog": true,"trafficFine": true,"plateType": "02","plateNum": "贵ARR008","id": 72,"userId": 598156,"cityCode": 520100}</t>
-  </si>
-  <si>
     <t>交通罚款开启</t>
   </si>
   <si>
     <t>关闭自动记账的交通罚款这个项目</t>
   </si>
   <si>
-    <t>{"gasLog": false,"trafficFine": true,"plateType": "02","plateNum": "贵ARR008","id": 72,"userId": 598156,"cityCode": 520100}</t>
-  </si>
-  <si>
     <t>交通罚款关闭</t>
   </si>
   <si>
     <t>自动记账</t>
-  </si>
-  <si>
-    <t>添加一笔自动记账的交通罚款</t>
   </si>
   <si>
     <t>/vehicle/steward/accounts/autoSyncAccounts</t>
@@ -206,48 +188,81 @@
     <t>自动记账的加油添加成功</t>
   </si>
   <si>
+    <t>检查到有自动记账的数据，但是不添加到记账明细</t>
+  </si>
+  <si>
+    <t>自动记账的数据加到记账明细中</t>
+  </si>
+  <si>
+    <t>不同意开启自动记账的授权</t>
+  </si>
+  <si>
+    <t>{"plateType": "02","plateNum": "贵ARR008"}</t>
+  </si>
+  <si>
+    <t>自动记账没有被打开</t>
+  </si>
+  <si>
+    <t>同意开启自动记账的授权</t>
+  </si>
+  <si>
+    <t>登录账号：18800000020（有车）</t>
+  </si>
+  <si>
+    <t>自动记账被打开</t>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/31/interface/api/74436</t>
+  </si>
+  <si>
+    <t>/vehicle/steward/authorization/update</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pvtapi/vehicle/manage/list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/vehicle/steward/accounts/autoSyncAccounts</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/vehicle/steward/authorization/disagree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/vehicle/steward/authorization/agree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取用户授权</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoSyncAccountsvehiclesteward002</t>
+  </si>
+  <si>
+    <t>disagreevehiclesteward001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>agreevehiclesteward001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改自动记账</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>listvehiclesteward001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoSyncAccountsvehiclesteward001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>更新获取新费用</t>
-  </si>
-  <si>
-    <t>检查到有自动记账的数据，但是不添加到记账明细</t>
-  </si>
-  <si>
-    <t>自动记账的数据加到记账明细中</t>
-  </si>
-  <si>
-    <t>http://yapi.hikcreate.com/project/31/interface/api/75456</t>
-  </si>
-  <si>
-    <t>不同意开启自动记账的授权</t>
-  </si>
-  <si>
-    <t>{"plateType": "02","plateNum": "贵ARR008"}</t>
-  </si>
-  <si>
-    <t>自动记账没有被打开</t>
-  </si>
-  <si>
-    <t>同意开启自动记账的授权</t>
-  </si>
-  <si>
-    <t>登录账号：18800000020（有车）</t>
-  </si>
-  <si>
-    <t>自动记账被打开</t>
-  </si>
-  <si>
-    <t>http://yapi.hikcreate.com/project/31/interface/api/74436</t>
-  </si>
-  <si>
-    <t>/vehicle/steward/authorization/update</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/pvtapi/vehicle/manage/list</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vehicle/steward/accounts/autoSyncAccounts</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -255,23 +270,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/vehicle/steward/authorization/disagree</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vehicle/steward/authorization/agree</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取用户授权</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vehicle/steward/authorization/authorizationOfUse</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vehicle/steward/authorization/update</t>
+    <t>updateLastTimevehiclesteward001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动记账</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加一笔自动记账的交通罚款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/31/interface/api/74446</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -279,41 +290,42 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>getvehiclesteward001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>postvehiclesteward001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>postvehiclesteward002</t>
-  </si>
-  <si>
-    <t>autoSyncAccountsvehiclesteward002</t>
-  </si>
-  <si>
-    <t>getvehiclesteward002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>listvehiclesteward001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>autoSyncAccountsvehiclesteward001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>updateLastTimevehiclesteward001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>disagreevehiclesteward001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>agreevehiclesteward001</t>
+    <t>开启自动记账的交通罚款这个项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/vehicle/steward/authorization/authorizationOfUser</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"gasLog": true,"trafficFine": false,"plateType": "","plateNum": "","id": 84,"userId": 598137,"cityCode": 520100}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"gasLog": true,"trafficFine": true,"plateType": "02","plateNum": "贵ARR008","id": 72,"userId": 598137,"cityCode": 520100}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"gasLog": false,"trafficFine":false,"plateType": "02","plateNum": "贵ARR008","id": 72,"userId": 598137,"cityCode": 520100}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gasvehiclesteward002</t>
+  </si>
+  <si>
+    <t>{"gasLog": false,"trafficFine": false,"plateType": "","plateNum": "","id": 84,"userId": 598137,"cityCode": 520100}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>trafficFinevehiclesteward001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>trafficFinevehiclesteward002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gasvehiclesteward001</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -404,7 +416,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -426,6 +438,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -710,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -791,13 +806,13 @@
     </row>
     <row r="2" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>19</v>
@@ -806,7 +821,7 @@
         <v>26</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="1" t="s">
@@ -824,7 +839,7 @@
         <v>21</v>
       </c>
       <c r="N2" s="1"/>
-      <c r="O2" s="4" t="s">
+      <c r="O2" t="s">
         <v>28</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -837,13 +852,13 @@
     </row>
     <row r="3" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>19</v>
@@ -852,7 +867,7 @@
         <v>30</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="1" t="s">
@@ -863,17 +878,17 @@
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>21</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>22</v>
@@ -885,7 +900,7 @@
     </row>
     <row r="4" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>18</v>
@@ -897,7 +912,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>31</v>
@@ -911,17 +926,17 @@
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="2" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>22</v>
@@ -931,42 +946,46 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="N5" s="1"/>
-      <c r="O5" s="4"/>
+      <c r="O5" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="P5" s="1" t="s">
         <v>22</v>
       </c>
@@ -977,7 +996,7 @@
     </row>
     <row r="6" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
@@ -989,31 +1008,31 @@
         <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="2" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>22</v>
@@ -1023,46 +1042,42 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="K7" s="2"/>
       <c r="L7" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>21</v>
       </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="O7" s="4"/>
       <c r="P7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1073,43 +1088,43 @@
     </row>
     <row r="8" spans="1:18" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>22</v>
@@ -1121,43 +1136,43 @@
     </row>
     <row r="9" spans="1:18" ht="114" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>21</v>
       </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="4" t="s">
-        <v>53</v>
+      <c r="O9" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>22</v>
@@ -1169,26 +1184,26 @@
     </row>
     <row r="10" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>25</v>
@@ -1196,14 +1211,14 @@
       <c r="J10" s="1"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>21</v>
       </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="4" t="s">
-        <v>60</v>
+      <c r="O10" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>22</v>
@@ -1215,43 +1230,43 @@
     </row>
     <row r="11" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>21</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>22</v>
@@ -1263,43 +1278,43 @@
     </row>
     <row r="12" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>21</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>22</v>
@@ -1312,9 +1327,10 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1"/>
+    <hyperlink ref="O9" r:id="rId1"/>
+    <hyperlink ref="O10" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/test_case_data/bmc/bmc_vehicle_steward_29_39_20210513.xlsx
+++ b/test_case_data/bmc/bmc_vehicle_steward_29_39_20210513.xlsx
@@ -42,9 +42,6 @@
     <t>frontInterface</t>
   </si>
   <si>
-    <t>前置条件</t>
-  </si>
-  <si>
     <t>method</t>
   </si>
   <si>
@@ -52,9 +49,6 @@
   </si>
   <si>
     <t>reqData</t>
-  </si>
-  <si>
-    <t>预期结果</t>
   </si>
   <si>
     <t>expectData</t>
@@ -298,25 +292,9 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{"gasLog": true,"trafficFine": false,"plateType": "","plateNum": "","id": 84,"userId": 598137,"cityCode": 520100}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"gasLog": true,"trafficFine": true,"plateType": "02","plateNum": "贵ARR008","id": 72,"userId": 598137,"cityCode": 520100}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"gasLog": false,"trafficFine":false,"plateType": "02","plateNum": "贵ARR008","id": 72,"userId": 598137,"cityCode": 520100}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>gasvehiclesteward002</t>
   </si>
   <si>
-    <t>{"gasLog": false,"trafficFine": false,"plateType": "","plateNum": "","id": 84,"userId": 598137,"cityCode": 520100}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>trafficFinevehiclesteward001</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -326,6 +304,30 @@
   </si>
   <si>
     <t>gasvehiclesteward001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"gasLog": true,"trafficFine": false,"plateType": "","plateNum": "","id": 64,"userId": 598137,"cityCode": 520100}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"gasLog": false,"trafficFine": false,"plateType": "","plateNum": "","id": 64,"userId": 598137,"cityCode": 520100}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"gasLog": true,"trafficFine": true,"plateType": "02","plateNum": "贵ARR008","id": 64,"userId": 598137,"cityCode": 520100}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"gasLog": false,"trafficFine":false,"plateType": "02","plateNum": "贵ARR008","id": 64,"userId": 598137,"cityCode": 520100}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>frontCondition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expectResult</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -416,7 +418,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -441,6 +443,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -725,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -770,558 +775,558 @@
       <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="4"/>
       <c r="P7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="114" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/test_case_data/bmc/bmc_vehicle_steward_29_39_20210513.xlsx
+++ b/test_case_data/bmc/bmc_vehicle_steward_29_39_20210513.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="91">
   <si>
     <t>caseNum</t>
   </si>
@@ -191,143 +191,151 @@
     <t>不同意开启自动记账的授权</t>
   </si>
   <si>
+    <t>自动记账没有被打开</t>
+  </si>
+  <si>
+    <t>同意开启自动记账的授权</t>
+  </si>
+  <si>
+    <t>登录账号：18800000020（有车）</t>
+  </si>
+  <si>
+    <t>自动记账被打开</t>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/31/interface/api/74436</t>
+  </si>
+  <si>
+    <t>/vehicle/steward/authorization/update</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pvtapi/vehicle/manage/list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/vehicle/steward/accounts/autoSyncAccounts</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/vehicle/steward/authorization/disagree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取用户授权</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoSyncAccountsvehiclesteward002</t>
+  </si>
+  <si>
+    <t>更改自动记账</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>listvehiclesteward001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoSyncAccountsvehiclesteward001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新获取新费用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateLastTimevehiclesteward001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动记账</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加一笔自动记账的交通罚款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/31/interface/api/74446</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>authorizationOfUsevehiclesteward001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启自动记账的交通罚款这个项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/vehicle/steward/authorization/authorizationOfUser</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gasvehiclesteward002</t>
+  </si>
+  <si>
+    <t>trafficFinevehiclesteward001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>trafficFinevehiclesteward002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gasvehiclesteward001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"gasLog": false,"trafficFine": false,"plateType": "","plateNum": "","id": 64,"userId": 598137,"cityCode": 520100}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"gasLog": true,"trafficFine": true,"plateType": "02","plateNum": "贵ARR008","id": 64,"userId": 598137,"cityCode": 520100}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"gasLog": false,"trafficFine":false,"plateType": "02","plateNum": "贵ARR008","id": 64,"userId": 598137,"cityCode": 520100}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>frontCondition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expectResult</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"gasLog": true,"trafficFine": false,"plateType": "","plateNum": "","id": 122,"userId": 598137,"cityCode": 520100}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>agreedisagreevehiclesteward002</t>
+  </si>
+  <si>
+    <t>/vehicle/steward/authorization/agree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>agreedisagreevehiclesteward001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>{"plateType": "02","plateNum": "贵ARR008"}</t>
-  </si>
-  <si>
-    <t>自动记账没有被打开</t>
-  </si>
-  <si>
-    <t>同意开启自动记账的授权</t>
-  </si>
-  <si>
-    <t>登录账号：18800000020（有车）</t>
-  </si>
-  <si>
-    <t>自动记账被打开</t>
-  </si>
-  <si>
-    <t>http://yapi.hikcreate.com/project/31/interface/api/74436</t>
-  </si>
-  <si>
-    <t>/vehicle/steward/authorization/update</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/pvtapi/vehicle/manage/list</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vehicle/steward/accounts/autoSyncAccounts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vehicle/steward/authorization/disagree</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vehicle/steward/authorization/agree</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取用户授权</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>autoSyncAccountsvehiclesteward002</t>
-  </si>
-  <si>
-    <t>disagreevehiclesteward001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>agreevehiclesteward001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>更改自动记账</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>listvehiclesteward001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>autoSyncAccountsvehiclesteward001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新获取新费用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":true,"code":1000,"msg":"操作成功","errorMsg":"操作成功"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"plateType": "02","plateNum": "贵ARR008"}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/vehicle/steward/index/updateLastTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>updateLastTimevehiclesteward001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动记账</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加一笔自动记账的交通罚款</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://yapi.hikcreate.com/project/31/interface/api/74446</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>authorizationOfUsevehiclesteward001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启自动记账的交通罚款这个项目</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vehicle/steward/authorization/authorizationOfUser</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gasvehiclesteward002</t>
-  </si>
-  <si>
-    <t>trafficFinevehiclesteward001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>trafficFinevehiclesteward002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gasvehiclesteward001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"gasLog": true,"trafficFine": false,"plateType": "","plateNum": "","id": 64,"userId": 598137,"cityCode": 520100}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"gasLog": false,"trafficFine": false,"plateType": "","plateNum": "","id": 64,"userId": 598137,"cityCode": 520100}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"gasLog": true,"trafficFine": true,"plateType": "02","plateNum": "贵ARR008","id": 64,"userId": 598137,"cityCode": 520100}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"gasLog": false,"trafficFine":false,"plateType": "02","plateNum": "贵ARR008","id": 64,"userId": 598137,"cityCode": 520100}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>frontCondition</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>expectResult</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -730,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="I7" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -776,7 +784,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>7</v>
@@ -788,7 +796,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>10</v>
@@ -811,13 +819,13 @@
     </row>
     <row r="2" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>17</v>
@@ -826,7 +834,7 @@
         <v>24</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="1" t="s">
@@ -857,13 +865,13 @@
     </row>
     <row r="3" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>17</v>
@@ -872,7 +880,7 @@
         <v>28</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="1" t="s">
@@ -905,7 +913,7 @@
     </row>
     <row r="4" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>16</v>
@@ -931,7 +939,7 @@
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>33</v>
@@ -953,7 +961,7 @@
     </row>
     <row r="5" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>16</v>
@@ -965,10 +973,10 @@
         <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="1" t="s">
@@ -979,7 +987,7 @@
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>38</v>
@@ -1001,7 +1009,7 @@
     </row>
     <row r="6" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>16</v>
@@ -1027,7 +1035,7 @@
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>40</v>
@@ -1049,7 +1057,7 @@
     </row>
     <row r="7" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>16</v>
@@ -1064,7 +1072,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="1" t="s">
@@ -1093,7 +1101,7 @@
     </row>
     <row r="8" spans="1:18" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>16</v>
@@ -1105,10 +1113,10 @@
         <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="1" t="s">
@@ -1141,7 +1149,7 @@
     </row>
     <row r="9" spans="1:18" ht="114" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>16</v>
@@ -1177,7 +1185,7 @@
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>20</v>
@@ -1189,13 +1197,13 @@
     </row>
     <row r="10" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>17</v>
@@ -1204,7 +1212,7 @@
         <v>49</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="1" t="s">
@@ -1223,7 +1231,7 @@
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>20</v>
@@ -1235,13 +1243,13 @@
     </row>
     <row r="11" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>17</v>
@@ -1250,7 +1258,7 @@
         <v>51</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="1" t="s">
@@ -1261,13 +1269,13 @@
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="L11" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="M11" s="3" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="4" t="s">
@@ -1283,7 +1291,7 @@
     </row>
     <row r="12" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>16</v>
@@ -1295,31 +1303,31 @@
         <v>17</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="2" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>20</v>
